--- a/spc/results/t01/M_0.25_k_0.05/iht_CLEAN/iht_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/iht_CLEAN/iht_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A346"/>
+  <dimension ref="A1:A279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,341 +1830,6 @@
         <v>118.0544684112283</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>117.9063175218086</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>117.7821248871401</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>117.6819099988369</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>117.6001082386051</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>117.5326241298359</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>117.4764077377566</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>117.4291609857969</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>117.3891322370898</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>117.3549712748488</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>117.325625937285</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>117.300267719595</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>117.2782376955492</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>117.2590068206115</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>117.2421465067582</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>117.2273066011161</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>117.2141987502848</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>117.2025837179865</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>117.192261630663</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>117.1830644106465</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>117.1748498577466</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>117.1674969833232</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>117.1609023036809</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>117.1549768739728</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>117.1496438980083</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>117.1448367891969</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>117.1404975873631</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>117.1365756581706</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>117.1330266184332</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>117.1298114431003</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>117.1268957192358</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>117.1242490196213</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>117.1218443742479</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>117.1196578223441</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>117.1176680310018</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>117.1158559691508</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>117.1142046277481</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>117.1126987787361</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>117.1113247666617</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>117.1100703279317</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>117.1089244335412</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>117.107877151821</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>117.1069195283179</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>117.1060434803897</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>117.1052417044824</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>117.1045075943702</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>117.1038351689027</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>117.1032190080195</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>117.1026541959747</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>117.1021362708655</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>117.1016611796859</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>117.1012252382341</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>117.1008250952952</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>117.1004577005946</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>117.1001202760857</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>117.0998102901924</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>117.0995254346719</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>117.0992636038085</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>117.0990228756813</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>117.098801495283</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>117.0985978592898</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>117.0984105023101</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>117.0982380844549</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>117.0980793800959</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>117.0979332676873</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>117.0977987205443</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>117.0976747984837</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>117.0975606402376</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
